--- a/Scripts/exports/report.xlsx
+++ b/Scripts/exports/report.xlsx
@@ -74,16 +74,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="00FF9999"/>
-          <bgColor rgb="00FF9999"/>
+          <fgColor rgb="0099FF99"/>
+          <bgColor rgb="0099FF99"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="0099FF99"/>
-          <bgColor rgb="0099FF99"/>
+          <fgColor rgb="00FF9999"/>
+          <bgColor rgb="00FF9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -572,14 +572,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:B11"/>
-  <conditionalFormatting sqref="B3:B11">
-    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>MAX(B3:B11)</formula>
-    </cfRule>
-    <cfRule dxfId="1" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>MIN(B3:B11)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -733,14 +725,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:B13"/>
-  <conditionalFormatting sqref="B3:B13">
-    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>MAX(B3:B13)</formula>
-    </cfRule>
-    <cfRule dxfId="1" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>MIN(B3:B13)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -2070,11 +2054,11 @@
   </sheetData>
   <autoFilter ref="A1:C87"/>
   <conditionalFormatting sqref="C3:C87">
-    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>MAX(C3:C87)</formula>
+    <cfRule dxfId="0" priority="1" type="expression">
+      <formula>C3&gt;AVERAGE(C3:C87)</formula>
     </cfRule>
-    <cfRule dxfId="1" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>MIN(C3:C87)</formula>
+    <cfRule dxfId="1" priority="2" type="expression">
+      <formula>C3&lt;AVERAGE(C3:C87)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Scripts/exports/report.xlsx
+++ b/Scripts/exports/report.xlsx
@@ -725,6 +725,18 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:B13"/>
+  <conditionalFormatting sqref="B3:B13">
+    <cfRule priority="1" type="colorScale">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="00FF9999"/>
+        <color rgb="00FFFFFF"/>
+        <color rgb="0099FF99"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
